--- a/软工九班量化统计表.xlsx
+++ b/软工九班量化统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26914\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26914\Desktop\软工九量化统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627F4724-4413-4654-BFE1-BF4F7581F907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B85C8-A436-4C2B-B847-6779600B3CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <t>4（创新创业）8（文明宿舍）6（gyb培训）</t>
   </si>
   <si>
-    <t>5（优秀工作者）6（gyb培训）</t>
-  </si>
-  <si>
     <t>5（创业优秀工作者）5（招聘优秀工作者）6（gyb培训）</t>
   </si>
   <si>
@@ -849,6 +846,10 @@
   </si>
   <si>
     <t>6（gyb培训）6（传智杯web一等奖）5（传智杯程序设计二等奖）5（工作证明）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5（优秀工作者）6（gyb培训）6（传智杯web一等奖）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4605,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14"/>
@@ -4687,7 +4688,7 @@
         <v>117</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="1">
@@ -4724,7 +4725,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1">
         <v>72</v>
@@ -4757,7 +4758,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="1">
         <v>88</v>
@@ -4826,7 +4827,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F12" s="1">
         <v>66</v>
@@ -4862,7 +4863,7 @@
         <v>183</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1">
         <v>212.5</v>
@@ -4985,7 +4986,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.5">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>57</v>
@@ -5012,7 +5013,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" s="1">
         <v>76</v>
@@ -5099,7 +5100,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F28" s="1">
         <v>67</v>
@@ -5216,7 +5217,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" s="1">
         <v>80</v>
@@ -5270,7 +5271,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" s="1">
         <v>53</v>
@@ -5288,7 +5289,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="1">
         <v>89</v>
@@ -5429,7 +5430,7 @@
         <v>70</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" s="1">
         <v>76</v>
@@ -5597,7 +5598,7 @@
         <v>86</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F57" s="1">
         <v>108</v>
@@ -5685,7 +5686,7 @@
         <v>87</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="1">
         <v>143</v>
@@ -5724,7 +5725,7 @@
         <v>66</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F64" s="1">
         <v>78</v>
@@ -5829,7 +5830,7 @@
         <v>50</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F70" s="1">
         <v>61</v>
@@ -5847,7 +5848,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" s="1">
         <v>80</v>
@@ -5865,7 +5866,7 @@
         <v>106</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F72" s="1">
         <v>238</v>
@@ -5919,7 +5920,7 @@
         <v>60</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F75" s="1">
         <v>76</v>
@@ -5955,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F77" s="1">
         <v>89</v>
@@ -5991,7 +5992,7 @@
         <v>50</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F79" s="1">
         <v>62</v>
@@ -6027,7 +6028,7 @@
         <v>50</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F81" s="1">
         <v>55</v>
@@ -6045,14 +6046,14 @@
         <v>93</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F82" s="1">
         <v>122.5</v>
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="28">
+    <row r="83" spans="1:7" ht="42">
       <c r="A83" s="3" t="s">
         <v>195</v>
       </c>
@@ -6063,10 +6064,10 @@
         <v>70</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F83" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G83" s="3"/>
     </row>

--- a/软工九班量化统计表.xlsx
+++ b/软工九班量化统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26914\Desktop\软工九量化统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B85C8-A436-4C2B-B847-6779600B3CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89161A5B-E2AD-4FFF-BCD1-DAC7260431B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1850" windowWidth="21530" windowHeight="14150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.10" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="250">
   <si>
     <t>姓名</t>
   </si>
@@ -785,10 +785,6 @@
     <t>5（创业优秀工作者）5（招聘优秀工作者）6（gyb培训）</t>
   </si>
   <si>
-    <t>8（新媒体摄影）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5（青媒优秀通讯员）14（青媒工作证明）12（新媒体一月总结）5（新媒体工作证明）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -850,6 +846,14 @@
   </si>
   <si>
     <t>5（优秀工作者）6（gyb培训）6（传智杯web一等奖）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6（gyb培训）6（传智杯web一等奖））</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8（新媒体摄影）6（传智杯web一等奖）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4606,8 +4610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14"/>
@@ -4688,7 +4692,7 @@
         <v>117</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="1">
@@ -4696,7 +4700,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5">
+    <row r="5" spans="1:7" ht="28">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -4707,10 +4711,10 @@
         <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -4725,7 +4729,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1">
         <v>72</v>
@@ -4758,7 +4762,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" s="1">
         <v>88</v>
@@ -4827,7 +4831,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="1">
         <v>66</v>
@@ -4863,7 +4867,7 @@
         <v>183</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" s="1">
         <v>212.5</v>
@@ -4986,7 +4990,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.5">
       <c r="A22" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>57</v>
@@ -5013,7 +5017,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="1">
         <v>76</v>
@@ -5100,7 +5104,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="1">
         <v>67</v>
@@ -5217,7 +5221,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="1">
         <v>80</v>
@@ -5242,7 +5246,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="14.5">
+    <row r="37" spans="1:7" ht="28">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
@@ -5252,11 +5256,11 @@
       <c r="C37" s="3">
         <v>71</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>229</v>
+      <c r="D37" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="F37" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -5271,14 +5275,14 @@
         <v>43</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="1">
         <v>53</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="14.5">
+    <row r="39" spans="1:7" ht="28">
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
@@ -5289,10 +5293,10 @@
         <v>81</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F39" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -5430,7 +5434,7 @@
         <v>70</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F47" s="1">
         <v>76</v>
@@ -5598,7 +5602,7 @@
         <v>86</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F57" s="1">
         <v>108</v>
@@ -5686,7 +5690,7 @@
         <v>87</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62" s="1">
         <v>143</v>
@@ -5725,7 +5729,7 @@
         <v>66</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" s="1">
         <v>78</v>
@@ -5830,7 +5834,7 @@
         <v>50</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F70" s="1">
         <v>61</v>
@@ -5848,7 +5852,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F71" s="1">
         <v>80</v>
@@ -5866,7 +5870,7 @@
         <v>106</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F72" s="1">
         <v>238</v>
@@ -5956,7 +5960,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F77" s="1">
         <v>89</v>
@@ -5992,7 +5996,7 @@
         <v>50</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F79" s="1">
         <v>62</v>
@@ -6028,7 +6032,7 @@
         <v>50</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" s="1">
         <v>55</v>
@@ -6046,7 +6050,7 @@
         <v>93</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F82" s="1">
         <v>122.5</v>
@@ -6064,7 +6068,7 @@
         <v>70</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F83" s="1">
         <v>87</v>
